--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:25:04+00:00</t>
+    <t>2024-02-07T09:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-practitioner.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="510">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:30:33+00:00</t>
+    <t>2024-02-21T11:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1561,6 +1564,10 @@
   </si>
   <si>
     <t>Practitioner.qualification.issuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization)
+</t>
   </si>
   <si>
     <t>Organization that regulates and issues the qualification</t>
@@ -1725,6 +1732,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1918,7 +1940,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.3359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="138.9140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2071,7 +2093,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -2183,7 +2205,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2297,7 +2319,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2409,7 +2431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2521,7 +2543,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2635,7 +2657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -2749,7 +2771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2768,7 +2790,7 @@
         <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>76</v>
@@ -2863,7 +2885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -2977,7 +2999,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -3091,7 +3113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
@@ -3205,7 +3227,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -3319,7 +3341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>162</v>
       </c>
@@ -3340,7 +3362,7 @@
         <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>76</v>
@@ -3433,7 +3455,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>166</v>
       </c>
@@ -3547,7 +3569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>171</v>
       </c>
@@ -3661,7 +3683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>180</v>
       </c>
@@ -3775,7 +3797,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>188</v>
       </c>
@@ -3889,7 +3911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>195</v>
       </c>
@@ -4001,7 +4023,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>199</v>
       </c>
@@ -4022,7 +4044,7 @@
         <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
@@ -4115,7 +4137,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>204</v>
       </c>
@@ -4231,7 +4253,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>209</v>
       </c>
@@ -4250,7 +4272,7 @@
         <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
@@ -4345,7 +4367,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>218</v>
       </c>
@@ -4457,7 +4479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>219</v>
       </c>
@@ -4571,7 +4593,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>220</v>
       </c>
@@ -4687,7 +4709,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>229</v>
       </c>
@@ -4803,7 +4825,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>239</v>
       </c>
@@ -4919,7 +4941,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>250</v>
       </c>
@@ -5033,7 +5055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>259</v>
       </c>
@@ -5147,7 +5169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>269</v>
       </c>
@@ -5261,7 +5283,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>279</v>
       </c>
@@ -5379,7 +5401,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>288</v>
       </c>
@@ -5495,7 +5517,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>297</v>
       </c>
@@ -5607,7 +5629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>298</v>
       </c>
@@ -5721,7 +5743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>299</v>
       </c>
@@ -5837,7 +5859,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>310</v>
       </c>
@@ -5953,7 +5975,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>318</v>
       </c>
@@ -6067,7 +6089,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>327</v>
       </c>
@@ -6181,7 +6203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>336</v>
       </c>
@@ -6200,7 +6222,7 @@
         <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>76</v>
@@ -6293,7 +6315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>345</v>
       </c>
@@ -6407,7 +6429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>351</v>
       </c>
@@ -6523,7 +6545,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>358</v>
       </c>
@@ -6542,7 +6564,7 @@
         <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>76</v>
@@ -6639,7 +6661,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>368</v>
       </c>
@@ -6751,7 +6773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>369</v>
       </c>
@@ -6863,7 +6885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>371</v>
       </c>
@@ -6884,7 +6906,7 @@
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>76</v>
@@ -6977,7 +6999,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>376</v>
       </c>
@@ -6998,7 +7020,7 @@
         <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>76</v>
@@ -7091,7 +7113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>381</v>
       </c>
@@ -7112,7 +7134,7 @@
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>76</v>
@@ -7205,7 +7227,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>386</v>
       </c>
@@ -7319,7 +7341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>396</v>
       </c>
@@ -7338,7 +7360,7 @@
         <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>76</v>
@@ -7435,7 +7457,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>404</v>
       </c>
@@ -7551,7 +7573,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>414</v>
       </c>
@@ -7665,7 +7687,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>420</v>
       </c>
@@ -7779,7 +7801,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>424</v>
       </c>
@@ -7895,7 +7917,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>433</v>
       </c>
@@ -8011,7 +8033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>442</v>
       </c>
@@ -8125,7 +8147,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>450</v>
       </c>
@@ -8241,7 +8263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>460</v>
       </c>
@@ -8353,7 +8375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>467</v>
       </c>
@@ -8465,7 +8487,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>468</v>
       </c>
@@ -8579,7 +8601,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>469</v>
       </c>
@@ -8695,7 +8717,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>474</v>
       </c>
@@ -8809,7 +8831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>481</v>
       </c>
@@ -8923,7 +8945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>489</v>
       </c>
@@ -9039,7 +9061,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>496</v>
       </c>
@@ -9067,16 +9089,16 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>270</v>
+        <v>497</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9144,7 +9166,7 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9153,12 +9175,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9184,16 +9206,16 @@
         <v>230</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9242,7 +9264,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9257,19 +9279,37 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN64">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI63">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>